--- a/4. Data/R models/Error By Country/HSI/HSI_DM_test.xlsx
+++ b/4. Data/R models/Error By Country/HSI/HSI_DM_test.xlsx
@@ -1,21 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\HSI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9AF18-39F7-444E-BE9E-7919D30A79ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>GARCH</t>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+  </si>
+  <si>
+    <t>GARCH-MIDAS</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Hang Seng HLN P-Value Test Dataset</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,16 +67,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -48,26 +117,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Cor1" xfId="2" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,126 +574,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="15" width="15.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>GARCH</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Monte Carlo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GARCH-MIDAS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SVR</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LSTM</t>
-        </is>
-      </c>
+    <row r="1" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C3" s="13"/>
     </row>
-    <row r="2">
-      <c r="A2">
+    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.001166466482087181</v>
-      </c>
-      <c r="C2">
-        <v>0.5755098682169988</v>
-      </c>
-      <c r="D2">
-        <v>0.008719333559671895</v>
-      </c>
-      <c r="E2">
-        <v>0.6598971039421482</v>
+      <c r="L6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
+    <row r="7" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.001140147859294004</v>
-      </c>
-      <c r="D3">
-        <v>0.001556352610122367</v>
-      </c>
-      <c r="E3">
-        <v>0.006940316388315556</v>
+      <c r="K7" s="3"/>
+      <c r="L7" s="8">
+        <v>1.1664664820871811E-3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.57550986821699879</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8.7193335596718949E-3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.65989710394214818</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.009415961291437108</v>
-      </c>
-      <c r="E4">
-        <v>0.6694609826640724</v>
+    <row r="8" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8">
+        <v>1.140147859294004E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1.5563526101223669E-3</v>
+      </c>
+      <c r="O8" s="8">
+        <v>6.9403163883155561E-3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1392255476118058</v>
+    <row r="9" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8">
+        <v>9.4159612914371076E-3</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.66946098266407239</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
+    <row r="10" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="13"/>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10">
+        <v>0.13922554761180581</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J5:O5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>